--- a/Results_04/Overall.xlsx
+++ b/Results_04/Overall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanks\Documents\SHERLOCK HOLMES\Mtech Files\MTP_TESTING\Results_04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F973EEC4-1ADC-4013-846C-A51A0686040B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41917B2-9DE6-4757-B7FE-B92929C07E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>Episode</t>
   </si>
@@ -106,6 +106,27 @@
   </si>
   <si>
     <t>Average</t>
+  </si>
+  <si>
+    <t>Memory Details</t>
+  </si>
+  <si>
+    <t>Actor Model</t>
+  </si>
+  <si>
+    <t>Encoder Model</t>
+  </si>
+  <si>
+    <t>56.2 MB</t>
+  </si>
+  <si>
+    <t>984 KB</t>
+  </si>
+  <si>
+    <t>456 KB</t>
+  </si>
+  <si>
+    <t>26.8 MB</t>
   </si>
 </sst>
 </file>
@@ -128,7 +149,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,6 +165,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -201,23 +228,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:J28"/>
+  <dimension ref="A3:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="94" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -513,15 +544,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -697,36 +728,36 @@
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="7">
         <f>AVERAGE(B5:B13)</f>
         <v>1.2693079852184035E-2</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="7">
         <f t="shared" ref="C14:E14" si="0">AVERAGE(C5:C13)</f>
         <v>1.4018508791910075E-2</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="7">
         <f t="shared" si="0"/>
         <v>6.492385992592351E-3</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="7">
         <f t="shared" si="0"/>
         <v>1.4501393339571908E-2</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="J15" s="4"/>
+      <c r="J15" s="3"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="5"/>
-      <c r="B17" s="8" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8" t="s">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="8"/>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
@@ -735,13 +766,13 @@
       <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -905,21 +936,60 @@
       <c r="A28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="7">
         <f>AVERAGE(B19:B27)</f>
         <v>7.6065861884746039E-2</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="7">
         <f t="shared" ref="C28:E28" si="1">AVERAGE(C19:C27)</f>
         <v>1.4018485649916071E-2</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="7">
         <f t="shared" si="1"/>
         <v>3.6913620915141027E-2</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="7">
         <f t="shared" si="1"/>
         <v>1.4501375193764463E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="1"/>
+      <c r="B31" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
